--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="364">
   <si>
     <t>1/username</t>
   </si>
@@ -42,10 +42,13 @@
     <t>7/day of birth</t>
   </si>
   <si>
-    <t>8/status email</t>
-  </si>
-  <si>
-    <t>distracted_neumann723</t>
+    <t>8/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lưu ý: tool chỉ lấy data có cột status trống </t>
+  </si>
+  <si>
+    <t>distracted_neumann7234</t>
   </si>
   <si>
     <t>Test12345678@$</t>
@@ -58,6 +61,9 @@
   </si>
   <si>
     <t>Hoa</t>
+  </si>
+  <si>
+    <t>115.76.45.141:15125</t>
   </si>
   <si>
     <t>romantic_feynman5</t>
@@ -1111,7 +1117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1140,6 +1146,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1162,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1175,6 +1186,9 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1457,13 +1471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -1473,10 +1487,11 @@
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1502,2101 +1517,2106 @@
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="4">
         <v>37680</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4">
         <v>37682</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4">
         <v>37684</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4">
         <v>37687</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4">
         <v>37690</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4">
         <v>37692</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4">
         <v>37695</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4">
         <v>37696</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="4">
         <v>37697</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="4">
         <v>37698</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="4">
         <v>37699</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4">
         <v>37700</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="4">
         <v>37702</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="4">
         <v>37704</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="4">
         <v>37705</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4">
         <v>37707</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4">
         <v>37709</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="4">
         <v>37712</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4">
         <v>37714</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="4">
         <v>37715</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="4">
         <v>37717</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="4">
         <v>37719</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4">
         <v>37720</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="4">
         <v>37721</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="4">
         <v>37722</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="4">
         <v>37724</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="4">
         <v>37725</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="4">
         <v>37726</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="4">
         <v>37734</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="4">
         <v>37738</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="4">
         <v>37739</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="4">
         <v>37741</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="4">
         <v>37744</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="4">
         <v>37745</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4">
         <v>37748</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="4">
         <v>37752</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="4">
         <v>37753</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="4">
         <v>37754</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="4">
         <v>37755</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="4">
         <v>37758</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="4">
         <v>37759</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="4">
         <v>37764</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="4">
         <v>37765</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="4">
         <v>37766</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="4">
         <v>37767</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="4">
         <v>37774</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="4">
         <v>37775</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="4">
         <v>37776</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="4">
         <v>37777</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D51" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="4">
         <v>37782</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D52" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="4">
         <v>37783</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="4">
         <v>37784</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="4">
         <v>37785</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="4">
         <v>37787</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="4">
         <v>37788</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="4">
         <v>37789</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="4">
         <v>37790</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="4">
         <v>37792</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D60" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="4">
         <v>37793</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="4">
         <v>37794</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="4">
         <v>37796</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="4">
         <v>37797</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="4">
         <v>37798</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D65" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="4">
         <v>37799</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1">
       <c r="A66" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D66" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="4">
         <v>37800</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1">
       <c r="A67" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="4">
         <v>37801</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D68" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="4">
         <v>37802</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D69" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="4">
         <v>37804</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="4">
         <v>37805</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D71" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="4">
         <v>37806</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D72" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="4">
         <v>37807</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D73" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="4">
         <v>37810</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="4">
         <v>37811</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D75" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="4">
         <v>37812</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1">
       <c r="A76" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="4">
         <v>37814</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1">
       <c r="A77" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="4">
         <v>37815</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D78" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="4">
         <v>37816</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1">
       <c r="A79" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D79" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="4">
         <v>37817</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1">
       <c r="A80" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D80" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="4">
         <v>37820</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="A81" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="4">
         <v>37822</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1">
       <c r="A82" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D82" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="4">
         <v>37823</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1">
       <c r="A83" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D83" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="4">
         <v>37825</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1">
       <c r="A84" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D84" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="4">
         <v>37826</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D85" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="4">
         <v>37827</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D86" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="4">
         <v>37829</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1">
       <c r="A87" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D87" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="4">
         <v>37830</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1">
       <c r="A88" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D88" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="4">
         <v>37832</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D89" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="4">
         <v>37833</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1">
       <c r="A90" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D90" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="4">
         <v>37834</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1">
       <c r="A91" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D91" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="4">
         <v>37837</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1">
       <c r="A92" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D92" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="4">
         <v>37841</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1">
       <c r="A93" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D93" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="4">
         <v>37842</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1">
       <c r="A94" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D94" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="4">
         <v>37843</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1">
       <c r="A95" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D95" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="4">
         <v>37846</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1">
       <c r="A96" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D96" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="4">
         <v>37847</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D97" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="4">
         <v>37848</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D98" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="4">
         <v>37484</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1">
       <c r="A99" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D99" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="4">
         <v>37486</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1">
       <c r="A100" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D100" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="4">
         <v>37487</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1">
       <c r="A101" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D101" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="4">
@@ -3605,5 +3625,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>